--- a/Prototip.xlsx
+++ b/Prototip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\creat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\City-Pack\OCity-Pack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1093B-420C-40D7-810B-152978DE37EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D07EDD5-2B28-47F9-9223-2455B230C6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proje 1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Tamamlayacak kişi:</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Şeyma Altıparmak</t>
-  </si>
-  <si>
-    <t>31.02.2023</t>
   </si>
   <si>
     <t>Objeler</t>
@@ -383,9 +380,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-41F]d\ mmm\ yyyy;@"/>
-    </dxf>
-    <dxf>
       <font>
         <u val="none"/>
         <vertAlign val="baseline"/>
@@ -547,6 +541,9 @@
       <numFmt numFmtId="165" formatCode="[$-41F]d\ mmm\ yyyy;@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-41F]d\ mmm\ yyyy;@"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="6" tint="0.59999389629810485"/>
@@ -686,7 +683,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F0062ED3-B57B-4D4A-9092-DE14346CBA0F}" name="Tamamlanan %"/>
     <tableColumn id="2" xr3:uid="{E0F24392-D132-4CDF-A241-66B7D7736DF1}" name="Objeler" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{7298DE0B-E3CC-4BBC-8B03-EAEADDE3661C}" name="Tris sayısı" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7298DE0B-E3CC-4BBC-8B03-EAEADDE3661C}" name="Tris sayısı" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{C230ECFF-8C7A-415C-ABBE-CE4D0161B5E3}" name="Notlar"/>
   </tableColumns>
   <tableStyleInfo name="Projeler için yapılacaklar listesi" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -699,13 +696,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Proje2" displayName="Proje2" ref="B7:E16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Proje2" displayName="Proje2" ref="B7:E16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B7:E16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamamlanan %" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Aşama" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Süre Sonu" dataDxfId="8" dataCellStyle="Tarih"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Notlar" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamamlanan %" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Aşama" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Süre Sonu" dataDxfId="7" dataCellStyle="Tarih"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Notlar" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Projeler için yapılacaklar listesi" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -717,13 +714,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Proje3" displayName="Proje3" ref="B7:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Proje3" displayName="Proje3" ref="B7:E16" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B7:E16" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Tamamlanan %" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Aşama" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Süre Sonu" dataDxfId="2" dataCellStyle="Tarih"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notlar" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Tamamlanan %" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Aşama" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Süre Sonu" dataDxfId="1" dataCellStyle="Tarih"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Notlar" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Projeler için yapılacaklar listesi" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1084,8 +1081,8 @@
   </sheetPr>
   <dimension ref="B1:E304"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1123,8 +1120,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
-        <v>22</v>
+      <c r="D4" s="16">
+        <v>45016</v>
       </c>
       <c r="E4" s="16"/>
     </row>
@@ -1142,10 +1139,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -3105,8 +3102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4B6E1E-3A94-4605-BAFF-BE0EA2205191}">
   <dimension ref="B1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3134,7 +3131,7 @@
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -3143,15 +3140,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="16" t="s">
-        <v>22</v>
+      <c r="D4" s="16">
+        <v>45016</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3162,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
